--- a/config_excel/A_array表示例--cfg_array.xlsx
+++ b/config_excel/A_array表示例--cfg_array.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="11610" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="示例1-example1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="128">
   <si>
     <t>武器配置</t>
   </si>
@@ -182,6 +182,9 @@
     <t>英雄配置</t>
   </si>
   <si>
+    <t>用于注释</t>
+  </si>
+  <si>
     <t>英雄id</t>
   </si>
   <si>
@@ -596,11 +599,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -613,71 +616,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -691,55 +631,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -755,19 +655,117 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -796,187 +794,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,6 +985,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1005,17 +1027,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,27 +1057,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,172 +1085,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -1248,20 +1246,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1581,10 +1574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1599,111 +1592,134 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" customHeight="1" spans="2:8">
       <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
+    </row>
+    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:8">
+      <c r="B6">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>88</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:8">
@@ -1717,7 +1733,7 @@
         <v>88</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>24</v>
@@ -1725,8 +1741,8 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>26</v>
+      <c r="H7" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:8">
@@ -1737,10 +1753,10 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>24</v>
@@ -1748,7 +1764,7 @@
       <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1757,13 +1773,13 @@
         <v>1001</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9">
-        <v>89</v>
+        <v>88.9</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>24</v>
@@ -1771,7 +1787,7 @@
       <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1780,13 +1796,13 @@
         <v>1001</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10">
-        <v>88.9</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>24</v>
@@ -1794,30 +1810,30 @@
       <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:8">
       <c r="B11">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1829,18 +1845,18 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1852,16 +1868,16 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>27</v>
@@ -1872,13 +1888,13 @@
         <v>1002</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>24</v>
@@ -1886,7 +1902,7 @@
       <c r="G14" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1898,18 +1914,18 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1921,90 +1937,68 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:8">
       <c r="B17">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E17">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:8">
       <c r="B18">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D18">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E18">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="2:8">
-      <c r="B19">
-        <v>1004</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>80</v>
-      </c>
-      <c r="E19">
-        <v>80</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
+    <row r="19" customHeight="1"/>
     <row r="20" customHeight="1"/>
     <row r="21" customHeight="1"/>
     <row r="22" customHeight="1"/>
@@ -2027,7 +2021,6 @@
     <row r="39" customHeight="1"/>
     <row r="40" customHeight="1"/>
     <row r="41" customHeight="1"/>
-    <row r="42" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.749305555555556" bottom="0.749305555555556" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2038,10 +2031,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2055,250 +2048,253 @@
     <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" customHeight="1" spans="2:9">
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:9">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:9">
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
         <v>54</v>
       </c>
+      <c r="H9" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="I9" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
         <v>64</v>
       </c>
+      <c r="D10" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
+      <c r="H10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2311,13 +2307,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="4" width="9" style="4"/>
     <col min="5" max="5" width="76.625" customWidth="1"/>
@@ -2325,47 +2321,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>71</v>
+    <row r="2" s="4" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C3" t="s">
         <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2396,10 +2386,10 @@
         <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -2407,10 +2397,10 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
@@ -2418,10 +2408,10 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
@@ -2429,13 +2419,13 @@
         <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
@@ -2443,10 +2433,10 @@
         <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2455,10 +2445,10 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2467,10 +2457,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2479,7 +2469,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2488,13 +2478,13 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -2502,7 +2492,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2511,7 +2501,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -2520,13 +2510,13 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -2534,10 +2524,10 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -2545,10 +2535,10 @@
         <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -2556,10 +2546,10 @@
         <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -2567,10 +2557,10 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -2578,10 +2568,10 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
@@ -2589,10 +2579,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -2600,10 +2590,10 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
@@ -2611,10 +2601,10 @@
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2622,10 +2612,10 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
@@ -2633,10 +2623,10 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
@@ -2644,10 +2634,10 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
@@ -2655,10 +2645,10 @@
         <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -2666,10 +2656,10 @@
         <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
@@ -2677,10 +2667,10 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -2688,10 +2678,10 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/config_excel/A_array表示例--cfg_array.xlsx
+++ b/config_excel/A_array表示例--cfg_array.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView windowHeight="18900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="示例1-example1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="129">
   <si>
     <t>武器配置</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>装备来源描述</t>
+  </si>
+  <si>
+    <t>slist</t>
   </si>
   <si>
     <t>int</t>
@@ -616,18 +619,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,17 +641,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,7 +656,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,14 +671,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,8 +686,62 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,22 +755,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -737,31 +762,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,25 +797,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,37 +959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,115 +977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,11 +1032,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,9 +1056,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,8 +1083,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,10 +1096,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1105,133 +1108,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1577,7 +1580,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1624,79 +1627,82 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="2:8">
+    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:8">
@@ -1704,7 +1710,7 @@
         <v>1001</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>88</v>
@@ -1713,13 +1719,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:8">
@@ -1727,7 +1733,7 @@
         <v>1001</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>88</v>
@@ -1736,13 +1742,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:8">
@@ -1750,7 +1756,7 @@
         <v>1001</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>89</v>
@@ -1759,13 +1765,13 @@
         <v>89</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:8">
@@ -1773,7 +1779,7 @@
         <v>1001</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>88</v>
@@ -1782,13 +1788,13 @@
         <v>88.9</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:8">
@@ -1796,7 +1802,7 @@
         <v>1001</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>89</v>
@@ -1805,13 +1811,13 @@
         <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:8">
@@ -1819,7 +1825,7 @@
         <v>1002</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>88</v>
@@ -1828,13 +1834,13 @@
         <v>88</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:8">
@@ -1842,7 +1848,7 @@
         <v>1002</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>89</v>
@@ -1851,13 +1857,13 @@
         <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:8">
@@ -1865,7 +1871,7 @@
         <v>1002</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>90</v>
@@ -1874,13 +1880,13 @@
         <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:8">
@@ -1888,7 +1894,7 @@
         <v>1002</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>88</v>
@@ -1897,13 +1903,13 @@
         <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:8">
@@ -1911,7 +1917,7 @@
         <v>1002</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>89</v>
@@ -1920,13 +1926,13 @@
         <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:8">
@@ -1934,7 +1940,7 @@
         <v>1002</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>90</v>
@@ -1943,13 +1949,13 @@
         <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:8">
@@ -1957,7 +1963,7 @@
         <v>1003</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>85</v>
@@ -1966,13 +1972,13 @@
         <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:8">
@@ -1980,7 +1986,7 @@
         <v>1004</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>80</v>
@@ -1989,13 +1995,13 @@
         <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" customHeight="1"/>
@@ -2033,8 +2039,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2050,10 +2056,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:9">
@@ -2061,110 +2067,110 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="2:9">
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:9">
@@ -2172,25 +2178,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:9">
@@ -2198,25 +2204,25 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:9">
@@ -2224,25 +2230,25 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:9">
@@ -2250,25 +2256,25 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -2276,25 +2282,25 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2315,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2321,7 +2327,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -2329,33 +2335,33 @@
     </row>
     <row r="2" s="4" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2386,10 +2392,10 @@
         <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -2397,10 +2403,10 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
@@ -2408,10 +2414,10 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
@@ -2419,13 +2425,13 @@
         <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
@@ -2433,10 +2439,10 @@
         <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2445,10 +2451,10 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2457,10 +2463,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2469,7 +2475,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2478,13 +2484,13 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -2492,7 +2498,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2501,7 +2507,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -2510,13 +2516,13 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -2524,10 +2530,10 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
@@ -2535,10 +2541,10 @@
         <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -2546,10 +2552,10 @@
         <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
@@ -2557,10 +2563,10 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
@@ -2568,10 +2574,10 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
@@ -2579,10 +2585,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
@@ -2590,10 +2596,10 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
@@ -2601,10 +2607,10 @@
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2612,10 +2618,10 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
@@ -2623,10 +2629,10 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
@@ -2634,10 +2640,10 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
@@ -2645,10 +2651,10 @@
         <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
@@ -2656,10 +2662,10 @@
         <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
@@ -2667,10 +2673,10 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
@@ -2678,10 +2684,10 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
